--- a/nmt/астатистика/nmt_score.xlsx
+++ b/nmt/астатистика/nmt_score.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Scoring File Name</t>
+  </si>
   <si>
     <t xml:space="preserve">Training data</t>
   </si>
@@ -28,9 +31,6 @@
     <t xml:space="preserve">Testing data</t>
   </si>
   <si>
-    <t xml:space="preserve">Scoring File Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scoring</t>
   </si>
   <si>
@@ -40,55 +40,71 @@
     <t xml:space="preserve">Viewer</t>
   </si>
   <si>
+    <t xml:space="preserve">nmt_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base</t>
   </si>
   <si>
     <t xml:space="preserve">Common Voice B1,B2</t>
   </si>
   <si>
-    <t xml:space="preserve">nmt_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.00%</t>
   </si>
   <si>
     <t xml:space="preserve">Saria</t>
   </si>
   <si>
+    <t xml:space="preserve">nmt_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">p_15_200_186k</t>
   </si>
   <si>
-    <t xml:space="preserve">nmt_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.00%</t>
   </si>
   <si>
+    <t xml:space="preserve">nmt_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">p_186k</t>
   </si>
   <si>
-    <t xml:space="preserve">nmt_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">29.00%</t>
   </si>
   <si>
+    <t xml:space="preserve">nmt_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">m_20_100_1.1m</t>
   </si>
   <si>
-    <t xml:space="preserve">nmt_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destan 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmt_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -137,14 +153,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -201,7 +217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,6 +239,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,17 +269,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
@@ -272,7 +292,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -307,10 +327,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -324,10 +344,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
@@ -338,18 +358,72 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="6" t="n">
+        <v>0.51</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
